--- a/Annotation Comments/ARP_Normalised_Annotation_VerificationWithComments_AllQuestions.xlsx
+++ b/Annotation Comments/ARP_Normalised_Annotation_VerificationWithComments_AllQuestions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARP_Emotions\Annotation Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D5D957-FE0D-4AE8-B16F-7F6BF73DC99D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86FBB9A-E9A4-45E5-8709-A8A17379BDB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16275" activeTab="2" xr2:uid="{4EAAA529-C126-3044-ACB9-B83B1A406B3C}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16275" xr2:uid="{4EAAA529-C126-3044-ACB9-B83B1A406B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="5" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="330">
   <si>
     <t>rf_strongest_emotion</t>
   </si>
@@ -1271,16 +1271,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D1602CEB-1C2F-4E7D-B661-F7AE8C1AD8F5}" name="question_3_predicted_emotions_Hung__2" displayName="question_3_predicted_emotions_Hung__2" ref="A1:J27" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:J27" xr:uid="{41540121-EC57-4CEA-8942-4924C07D54F9}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0067761C-F0DA-47BC-8BE3-ABE80D2178BF}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{CE1483EA-3E57-4074-80F9-E3A4B1CBFE3D}" uniqueName="2" name="rf_strongest_emotion" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{0067761C-F0DA-47BC-8BE3-ABE80D2178BF}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CE1483EA-3E57-4074-80F9-E3A4B1CBFE3D}" uniqueName="2" name="rf_strongest_emotion" queryTableFieldId="2" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{C47791C9-AA93-476E-8570-AB94EC85F232}" uniqueName="3" name="rf_strongness" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{B747EE38-2A2D-48F7-974C-38B0BE867035}" uniqueName="4" name="svm_strongest_emotion" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B747EE38-2A2D-48F7-974C-38B0BE867035}" uniqueName="4" name="svm_strongest_emotion" queryTableFieldId="4" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{1F4F211C-F16F-491B-88D9-46EE5817E192}" uniqueName="5" name="svm_strongness" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{B2B9BCCF-6BE4-4F42-9237-2631EA6442C6}" uniqueName="6" name="Human_Content_Emotion" queryTableFieldId="6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{BAED5161-D739-4F6D-A187-F9830D026F2F}" uniqueName="7" name="Human_Voice_Emotion" queryTableFieldId="7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{F5DB605B-F428-4C5C-84DA-B111CA424DF3}" uniqueName="8" name="Hung's prediction" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{24E0FDEA-1032-45BF-BADF-03B6C0DA3053}" uniqueName="9" name="Prediction Reasonable?" queryTableFieldId="9" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{44B7870E-5141-4282-92F3-355A56A81F1C}" uniqueName="10" name="Comment" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{B2B9BCCF-6BE4-4F42-9237-2631EA6442C6}" uniqueName="6" name="Human_Content_Emotion" queryTableFieldId="6" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{BAED5161-D739-4F6D-A187-F9830D026F2F}" uniqueName="7" name="Human_Voice_Emotion" queryTableFieldId="7" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{F5DB605B-F428-4C5C-84DA-B111CA424DF3}" uniqueName="8" name="Hung's prediction" queryTableFieldId="8" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{24E0FDEA-1032-45BF-BADF-03B6C0DA3053}" uniqueName="9" name="Prediction Reasonable?" queryTableFieldId="9" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{44B7870E-5141-4282-92F3-355A56A81F1C}" uniqueName="10" name="Comment" queryTableFieldId="10" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1290,21 +1290,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3BC6696-FB90-4330-BFBA-81C115DCBC0A}" name="predicted_emotions_question_5_advanced_final_Aishu" displayName="predicted_emotions_question_5_advanced_final_Aishu" ref="A1:O32" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:O32" xr:uid="{CC011B47-0AC3-41C1-8C05-453CDA592E1B}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{79DE2892-142F-4FC8-9BCD-710A4F1349F7}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{075F7D1D-3311-40D4-B886-96BCC4B1977C}" uniqueName="2" name="rf_strongest_emotion" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{79DE2892-142F-4FC8-9BCD-710A4F1349F7}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{075F7D1D-3311-40D4-B886-96BCC4B1977C}" uniqueName="2" name="rf_strongest_emotion" queryTableFieldId="2" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{995760AB-65FD-4C0D-9C4A-0A7938C39635}" uniqueName="3" name="rf_strongness" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{89BC5241-BA7F-4681-81B3-0500FDB53CD2}" uniqueName="4" name="svc_strongest_emotion" queryTableFieldId="4" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{89BC5241-BA7F-4681-81B3-0500FDB53CD2}" uniqueName="4" name="svc_strongest_emotion" queryTableFieldId="4" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{BF123EAA-B264-4BB7-B8E3-13B3343E6ACB}" uniqueName="5" name="svc_strongness" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{EDFC86AB-0093-48C3-A2FC-1278E18A0050}" uniqueName="6" name="lr_strongest_emotion" queryTableFieldId="6" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{EDFC86AB-0093-48C3-A2FC-1278E18A0050}" uniqueName="6" name="lr_strongest_emotion" queryTableFieldId="6" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{CFCC640B-B319-4B77-806E-F99A6BD1C748}" uniqueName="7" name="lr_strongness" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{8ED08A84-7F13-41C5-8FE4-51E61F561000}" uniqueName="8" name="knn_strongest_emotion" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{8ED08A84-7F13-41C5-8FE4-51E61F561000}" uniqueName="8" name="knn_strongest_emotion" queryTableFieldId="8" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{651A8716-7D2E-46A1-9F8A-BDE4A2A846F3}" uniqueName="9" name="knn_strongness" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{26C22B6C-21F5-4682-9C0D-88963E6861C6}" uniqueName="10" name="nb_strongest_emotion" queryTableFieldId="10" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{26C22B6C-21F5-4682-9C0D-88963E6861C6}" uniqueName="10" name="nb_strongest_emotion" queryTableFieldId="10" dataDxfId="4"/>
     <tableColumn id="11" xr3:uid="{A78525E0-2BD1-4755-99F1-25DBD6184F88}" uniqueName="11" name="nb_strongness" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{1D77E8C1-BAB8-4A5D-B462-69A6FE7785A9}" uniqueName="12" name="Human_Content_Emotion" queryTableFieldId="12" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{CEE9FF52-EC79-4535-A015-E63F2F975B81}" uniqueName="13" name="Human_Voice_Emotion" queryTableFieldId="13" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{B7300D31-7C01-4165-A434-855EB9046152}" uniqueName="15" name="Prediction reasonable?" queryTableFieldId="15" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{6C7D910C-9F0F-4041-B369-6A9719F85F43}" uniqueName="14" name="Comments" queryTableFieldId="14" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{1D77E8C1-BAB8-4A5D-B462-69A6FE7785A9}" uniqueName="12" name="Human_Content_Emotion" queryTableFieldId="12" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{CEE9FF52-EC79-4535-A015-E63F2F975B81}" uniqueName="13" name="Human_Voice_Emotion" queryTableFieldId="13" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{B7300D31-7C01-4165-A434-855EB9046152}" uniqueName="15" name="Prediction reasonable?" queryTableFieldId="15" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{6C7D910C-9F0F-4041-B369-6A9719F85F43}" uniqueName="14" name="Comments" queryTableFieldId="14" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880E028D-133D-432B-99FE-F9D91E9B8F02}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4383,7 +4383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAD86A5-E7C1-4D72-92F5-EF4AB72D3DFE}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -5257,7 +5257,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6603,7 +6603,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6621,7 +6621,7 @@
     <col min="11" max="11" width="15.375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="25.5" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="23.25" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23.25" customWidth="1"/>
+    <col min="14" max="14" width="12.875" customWidth="1"/>
     <col min="15" max="15" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6712,7 +6712,9 @@
       <c r="M2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="10"/>
+      <c r="N2" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O2" s="10" t="s">
         <v>222</v>
       </c>
@@ -6757,7 +6759,9 @@
       <c r="M3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10"/>
+      <c r="N3" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="O3" s="10" t="s">
         <v>224</v>
       </c>
@@ -6802,7 +6806,9 @@
       <c r="M4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O4" s="10" t="s">
         <v>226</v>
       </c>
@@ -6847,7 +6853,9 @@
       <c r="M5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="O5" s="10" t="s">
         <v>228</v>
       </c>
@@ -6892,7 +6900,9 @@
       <c r="M6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="O6" s="10" t="s">
         <v>230</v>
       </c>
@@ -6937,7 +6947,9 @@
       <c r="M7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="10"/>
+      <c r="N7" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O7" s="10" t="s">
         <v>232</v>
       </c>
@@ -6982,7 +6994,9 @@
       <c r="M8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="10"/>
+      <c r="N8" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="O8" s="10" t="s">
         <v>234</v>
       </c>
@@ -7027,7 +7041,9 @@
       <c r="M9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="10"/>
+      <c r="N9" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O9" s="10" t="s">
         <v>236</v>
       </c>
@@ -7072,7 +7088,9 @@
       <c r="M10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="10"/>
+      <c r="N10" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="O10" s="10" t="s">
         <v>238</v>
       </c>
@@ -7117,7 +7135,9 @@
       <c r="M11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="10"/>
+      <c r="N11" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="O11" s="10" t="s">
         <v>241</v>
       </c>
@@ -7162,7 +7182,9 @@
       <c r="M12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="10"/>
+      <c r="N12" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="O12" s="10" t="s">
         <v>243</v>
       </c>
@@ -7207,7 +7229,9 @@
       <c r="M13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="10"/>
+      <c r="N13" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O13" s="10" t="s">
         <v>245</v>
       </c>
@@ -7252,7 +7276,9 @@
       <c r="M14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="10"/>
+      <c r="N14" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O14" s="10" t="s">
         <v>247</v>
       </c>
@@ -7297,7 +7323,9 @@
       <c r="M15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="10"/>
+      <c r="N15" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O15" s="10" t="s">
         <v>249</v>
       </c>
@@ -7342,7 +7370,9 @@
       <c r="M16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="10"/>
+      <c r="N16" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O16" s="10" t="s">
         <v>251</v>
       </c>
@@ -7387,7 +7417,9 @@
       <c r="M17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="10"/>
+      <c r="N17" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O17" s="10" t="s">
         <v>253</v>
       </c>
@@ -7432,7 +7464,9 @@
       <c r="M18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="10"/>
+      <c r="N18" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="O18" s="10" t="s">
         <v>256</v>
       </c>
@@ -7477,7 +7511,9 @@
       <c r="M19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="10"/>
+      <c r="N19" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O19" s="10" t="s">
         <v>259</v>
       </c>
@@ -7522,7 +7558,9 @@
       <c r="M20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="10"/>
+      <c r="N20" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="O20" s="10" t="s">
         <v>261</v>
       </c>
@@ -7567,7 +7605,9 @@
       <c r="M21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N21" s="10"/>
+      <c r="N21" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O21" s="10" t="s">
         <v>263</v>
       </c>
@@ -7612,7 +7652,9 @@
       <c r="M22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N22" s="10"/>
+      <c r="N22" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O22" s="10" t="s">
         <v>265</v>
       </c>
@@ -7657,7 +7699,9 @@
       <c r="M23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="10"/>
+      <c r="N23" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O23" s="10" t="s">
         <v>267</v>
       </c>
@@ -7702,7 +7746,9 @@
       <c r="M24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="10"/>
+      <c r="N24" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O24" s="10" t="s">
         <v>269</v>
       </c>
@@ -7747,7 +7793,9 @@
       <c r="M25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N25" s="10"/>
+      <c r="N25" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O25" s="10" t="s">
         <v>271</v>
       </c>
@@ -7792,7 +7840,9 @@
       <c r="M26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="10"/>
+      <c r="N26" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O26" s="10" t="s">
         <v>273</v>
       </c>
@@ -7837,7 +7887,9 @@
       <c r="M27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N27" s="10"/>
+      <c r="N27" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="O27" s="10" t="s">
         <v>275</v>
       </c>
@@ -7882,7 +7934,9 @@
       <c r="M28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N28" s="10"/>
+      <c r="N28" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O28" s="10" t="s">
         <v>277</v>
       </c>
@@ -7927,7 +7981,9 @@
       <c r="M29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N29" s="10"/>
+      <c r="N29" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="O29" s="10" t="s">
         <v>279</v>
       </c>
@@ -7972,7 +8028,9 @@
       <c r="M30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="10"/>
+      <c r="N30" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O30" s="10" t="s">
         <v>281</v>
       </c>
